--- a/film_insight/data/rottentomatoes_url.xlsx
+++ b/film_insight/data/rottentomatoes_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="5960"/>
+    <workbookView windowWidth="18350" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>时间</t>
+    <t>year</t>
   </si>
   <si>
     <t>pianist</t>
@@ -974,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1318,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1399,10 +1396,10 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2014</v>
       </c>
     </row>
@@ -1440,7 +1437,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1505,14 +1502,14 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:3">
+    <row r="17" s="5" customFormat="1" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>2007</v>
       </c>
     </row>
@@ -1564,10 +1561,10 @@
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>2020</v>
       </c>
     </row>
